--- a/app/invest_db/room.xlsx
+++ b/app/invest_db/room.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoName\Desktop\FAST_IP_projects\chat\app\invest_db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoName\Documents\GitHub\invest_chat_\app\invest_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17139" uniqueCount="1990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17272" uniqueCount="1995">
   <si>
     <t>Название площадки</t>
   </si>
@@ -7662,6 +7662,21 @@
   </si>
   <si>
     <t>37.643523117186,55.834596306011</t>
+  </si>
+  <si>
+    <t>ОКВЭД</t>
+  </si>
+  <si>
+    <t>333231302928272625242322212019181716151413121110</t>
+  </si>
+  <si>
+    <t>747262</t>
+  </si>
+  <si>
+    <t>74726362</t>
+  </si>
+  <si>
+    <t>6362</t>
   </si>
 </sst>
 </file>
@@ -7690,7 +7705,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -7713,11 +7728,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -7732,6 +7758,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8047,11 +8076,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CI197"/>
+  <dimension ref="A1:CJ197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="A1:CI197"/>
+    <sheetView tabSelected="1" topLeftCell="BZ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CJ1" sqref="CJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8089,9 +8118,10 @@
     <col min="75" max="84" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="86" max="87" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:88" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8353,8 +8383,11 @@
       <c r="CI1" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="CJ1" s="5" t="s">
+        <v>1990</v>
+      </c>
     </row>
-    <row r="2" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>88</v>
       </c>
@@ -8616,8 +8649,11 @@
       <c r="CI2" s="3" t="s">
         <v>1889</v>
       </c>
+      <c r="CJ2" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="3" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>134</v>
       </c>
@@ -8879,8 +8915,11 @@
       <c r="CI3" s="3" t="s">
         <v>1890</v>
       </c>
+      <c r="CJ3" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="4" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>153</v>
       </c>
@@ -9142,8 +9181,11 @@
       <c r="CI4" s="3" t="s">
         <v>1891</v>
       </c>
+      <c r="CJ4" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="5" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>172</v>
       </c>
@@ -9405,8 +9447,11 @@
       <c r="CI5" s="3" t="s">
         <v>1892</v>
       </c>
+      <c r="CJ5" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="6" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>192</v>
       </c>
@@ -9668,8 +9713,11 @@
       <c r="CI6" s="3" t="s">
         <v>1893</v>
       </c>
+      <c r="CJ6" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="7" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>207</v>
       </c>
@@ -9931,8 +9979,11 @@
       <c r="CI7" s="3" t="s">
         <v>1894</v>
       </c>
+      <c r="CJ7" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="8" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>221</v>
       </c>
@@ -10194,8 +10245,11 @@
       <c r="CI8" s="3" t="s">
         <v>1895</v>
       </c>
+      <c r="CJ8" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="9" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>241</v>
       </c>
@@ -10457,8 +10511,11 @@
       <c r="CI9" s="3" t="s">
         <v>1896</v>
       </c>
+      <c r="CJ9" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="10" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>258</v>
       </c>
@@ -10720,8 +10777,11 @@
       <c r="CI10" s="3" t="s">
         <v>1897</v>
       </c>
+      <c r="CJ10" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="11" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>270</v>
       </c>
@@ -10983,8 +11043,11 @@
       <c r="CI11" s="3" t="s">
         <v>1898</v>
       </c>
+      <c r="CJ11" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="12" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>286</v>
       </c>
@@ -11246,8 +11309,11 @@
       <c r="CI12" s="3" t="s">
         <v>1899</v>
       </c>
+      <c r="CJ12" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="13" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>299</v>
       </c>
@@ -11509,8 +11575,11 @@
       <c r="CI13" s="3" t="s">
         <v>1900</v>
       </c>
+      <c r="CJ13" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="14" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>314</v>
       </c>
@@ -11772,8 +11841,11 @@
       <c r="CI14" s="3" t="s">
         <v>1901</v>
       </c>
+      <c r="CJ14" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="15" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>328</v>
       </c>
@@ -12035,8 +12107,11 @@
       <c r="CI15" s="3" t="s">
         <v>1902</v>
       </c>
+      <c r="CJ15" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="16" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>340</v>
       </c>
@@ -12298,8 +12373,11 @@
       <c r="CI16" s="3" t="s">
         <v>1903</v>
       </c>
+      <c r="CJ16" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="17" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>353</v>
       </c>
@@ -12561,8 +12639,11 @@
       <c r="CI17" s="3" t="s">
         <v>1904</v>
       </c>
+      <c r="CJ17" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="18" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>369</v>
       </c>
@@ -12824,8 +12905,11 @@
       <c r="CI18" s="3" t="s">
         <v>1905</v>
       </c>
+      <c r="CJ18" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="19" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>381</v>
       </c>
@@ -13087,8 +13171,11 @@
       <c r="CI19" s="3" t="s">
         <v>1906</v>
       </c>
+      <c r="CJ19" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="20" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>391</v>
       </c>
@@ -13350,8 +13437,11 @@
       <c r="CI20" s="3" t="s">
         <v>1907</v>
       </c>
+      <c r="CJ20" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="21" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>410</v>
       </c>
@@ -13613,8 +13703,11 @@
       <c r="CI21" s="3" t="s">
         <v>1908</v>
       </c>
+      <c r="CJ21" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="22" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>422</v>
       </c>
@@ -13876,8 +13969,11 @@
       <c r="CI22" s="3" t="s">
         <v>1909</v>
       </c>
+      <c r="CJ22" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="23" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>438</v>
       </c>
@@ -14139,8 +14235,11 @@
       <c r="CI23" s="3" t="s">
         <v>1910</v>
       </c>
+      <c r="CJ23" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="24" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>452</v>
       </c>
@@ -14402,8 +14501,11 @@
       <c r="CI24" s="3" t="s">
         <v>1911</v>
       </c>
+      <c r="CJ24" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="25" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>467</v>
       </c>
@@ -14665,8 +14767,11 @@
       <c r="CI25" s="3" t="s">
         <v>1912</v>
       </c>
+      <c r="CJ25" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="26" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>480</v>
       </c>
@@ -14928,8 +15033,11 @@
       <c r="CI26" s="3" t="s">
         <v>1913</v>
       </c>
+      <c r="CJ26" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="27" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>492</v>
       </c>
@@ -15191,8 +15299,11 @@
       <c r="CI27" s="3" t="s">
         <v>1914</v>
       </c>
+      <c r="CJ27" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="28" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>505</v>
       </c>
@@ -15454,8 +15565,11 @@
       <c r="CI28" s="3" t="s">
         <v>1915</v>
       </c>
+      <c r="CJ28" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="29" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>517</v>
       </c>
@@ -15717,8 +15831,11 @@
       <c r="CI29" s="3" t="s">
         <v>1916</v>
       </c>
+      <c r="CJ29" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="30" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>532</v>
       </c>
@@ -15980,8 +16097,11 @@
       <c r="CI30" s="3" t="s">
         <v>1917</v>
       </c>
+      <c r="CJ30" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="31" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>543</v>
       </c>
@@ -16243,8 +16363,11 @@
       <c r="CI31" s="3" t="s">
         <v>1918</v>
       </c>
+      <c r="CJ31" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="32" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>552</v>
       </c>
@@ -16506,8 +16629,11 @@
       <c r="CI32" s="3" t="s">
         <v>1919</v>
       </c>
+      <c r="CJ32" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="33" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>573</v>
       </c>
@@ -16769,8 +16895,11 @@
       <c r="CI33" s="3" t="s">
         <v>1920</v>
       </c>
+      <c r="CJ33" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="34" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>584</v>
       </c>
@@ -17032,8 +17161,11 @@
       <c r="CI34" s="3" t="s">
         <v>1921</v>
       </c>
+      <c r="CJ34" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="35" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>596</v>
       </c>
@@ -17295,8 +17427,11 @@
       <c r="CI35" s="3" t="s">
         <v>1922</v>
       </c>
+      <c r="CJ35" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="36" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>606</v>
       </c>
@@ -17558,8 +17693,11 @@
       <c r="CI36" s="3" t="s">
         <v>1923</v>
       </c>
+      <c r="CJ36" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="37" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>606</v>
       </c>
@@ -17821,8 +17959,11 @@
       <c r="CI37" s="3" t="s">
         <v>1924</v>
       </c>
+      <c r="CJ37" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="38" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>623</v>
       </c>
@@ -18084,8 +18225,11 @@
       <c r="CI38" s="3" t="s">
         <v>1925</v>
       </c>
+      <c r="CJ38" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="39" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>636</v>
       </c>
@@ -18347,8 +18491,11 @@
       <c r="CI39" s="3" t="s">
         <v>1926</v>
       </c>
+      <c r="CJ39" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="40" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>647</v>
       </c>
@@ -18610,8 +18757,11 @@
       <c r="CI40" s="3" t="s">
         <v>1927</v>
       </c>
+      <c r="CJ40" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="41" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>573</v>
       </c>
@@ -18873,8 +19023,11 @@
       <c r="CI41" s="3" t="s">
         <v>1928</v>
       </c>
+      <c r="CJ41" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="42" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>665</v>
       </c>
@@ -19136,8 +19289,11 @@
       <c r="CI42" s="3" t="s">
         <v>1929</v>
       </c>
+      <c r="CJ42" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="43" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>670</v>
       </c>
@@ -19399,8 +19555,11 @@
       <c r="CI43" s="3" t="s">
         <v>1930</v>
       </c>
+      <c r="CJ43" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="44" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>679</v>
       </c>
@@ -19662,8 +19821,11 @@
       <c r="CI44" s="3" t="s">
         <v>1931</v>
       </c>
+      <c r="CJ44" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="45" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>685</v>
       </c>
@@ -19925,8 +20087,11 @@
       <c r="CI45" s="3" t="s">
         <v>1932</v>
       </c>
+      <c r="CJ45" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="46" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>693</v>
       </c>
@@ -20188,8 +20353,11 @@
       <c r="CI46" s="3" t="s">
         <v>1933</v>
       </c>
+      <c r="CJ46" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="47" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>698</v>
       </c>
@@ -20451,8 +20619,11 @@
       <c r="CI47" s="3" t="s">
         <v>1934</v>
       </c>
+      <c r="CJ47" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="48" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>705</v>
       </c>
@@ -20714,8 +20885,11 @@
       <c r="CI48" s="3" t="s">
         <v>1935</v>
       </c>
+      <c r="CJ48" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="49" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>714</v>
       </c>
@@ -20977,8 +21151,11 @@
       <c r="CI49" s="3" t="s">
         <v>1936</v>
       </c>
+      <c r="CJ49" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="50" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>584</v>
       </c>
@@ -21240,8 +21417,11 @@
       <c r="CI50" s="3" t="s">
         <v>1937</v>
       </c>
+      <c r="CJ50" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="51" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>728</v>
       </c>
@@ -21503,8 +21683,11 @@
       <c r="CI51" s="3" t="s">
         <v>1938</v>
       </c>
+      <c r="CJ51" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="52" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>728</v>
       </c>
@@ -21766,8 +21949,11 @@
       <c r="CI52" s="3" t="s">
         <v>1939</v>
       </c>
+      <c r="CJ52" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="53" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>741</v>
       </c>
@@ -22029,8 +22215,11 @@
       <c r="CI53" s="3" t="s">
         <v>1940</v>
       </c>
+      <c r="CJ53" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="54" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>705</v>
       </c>
@@ -22292,8 +22481,11 @@
       <c r="CI54" s="3" t="s">
         <v>1941</v>
       </c>
+      <c r="CJ54" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="55" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>647</v>
       </c>
@@ -22555,8 +22747,11 @@
       <c r="CI55" s="3" t="s">
         <v>1942</v>
       </c>
+      <c r="CJ55" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="56" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>758</v>
       </c>
@@ -22818,8 +23013,11 @@
       <c r="CI56" s="3" t="s">
         <v>1943</v>
       </c>
+      <c r="CJ56" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="57" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>763</v>
       </c>
@@ -23081,8 +23279,11 @@
       <c r="CI57" s="3" t="s">
         <v>1944</v>
       </c>
+      <c r="CJ57" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="58" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>773</v>
       </c>
@@ -23344,8 +23545,11 @@
       <c r="CI58" s="3" t="s">
         <v>1945</v>
       </c>
+      <c r="CJ58" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="59" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>779</v>
       </c>
@@ -23607,8 +23811,11 @@
       <c r="CI59" s="3" t="s">
         <v>1946</v>
       </c>
+      <c r="CJ59" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="60" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>788</v>
       </c>
@@ -23870,8 +24077,11 @@
       <c r="CI60" s="3" t="s">
         <v>1947</v>
       </c>
+      <c r="CJ60" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="61" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>584</v>
       </c>
@@ -24133,8 +24343,11 @@
       <c r="CI61" s="3" t="s">
         <v>1948</v>
       </c>
+      <c r="CJ61" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="62" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>798</v>
       </c>
@@ -24396,8 +24609,11 @@
       <c r="CI62" s="3" t="s">
         <v>1949</v>
       </c>
+      <c r="CJ62" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="63" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>804</v>
       </c>
@@ -24659,8 +24875,11 @@
       <c r="CI63" s="3" t="s">
         <v>1950</v>
       </c>
+      <c r="CJ63" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="64" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>813</v>
       </c>
@@ -24922,8 +25141,11 @@
       <c r="CI64" s="3" t="s">
         <v>1951</v>
       </c>
+      <c r="CJ64" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="65" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>820</v>
       </c>
@@ -25185,8 +25407,11 @@
       <c r="CI65" s="3" t="s">
         <v>1952</v>
       </c>
+      <c r="CJ65" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="66" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>828</v>
       </c>
@@ -25448,8 +25673,11 @@
       <c r="CI66" s="3" t="s">
         <v>1953</v>
       </c>
+      <c r="CJ66" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="67" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>837</v>
       </c>
@@ -25711,8 +25939,11 @@
       <c r="CI67" s="3" t="s">
         <v>1954</v>
       </c>
+      <c r="CJ67" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="68" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>573</v>
       </c>
@@ -25974,8 +26205,11 @@
       <c r="CI68" s="3" t="s">
         <v>1955</v>
       </c>
+      <c r="CJ68" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="69" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>848</v>
       </c>
@@ -26237,8 +26471,11 @@
       <c r="CI69" s="3" t="s">
         <v>1956</v>
       </c>
+      <c r="CJ69" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="70" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>854</v>
       </c>
@@ -26500,8 +26737,11 @@
       <c r="CI70" s="3" t="s">
         <v>1957</v>
       </c>
+      <c r="CJ70" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="71" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>861</v>
       </c>
@@ -26763,8 +27003,11 @@
       <c r="CI71" s="3" t="s">
         <v>1958</v>
       </c>
+      <c r="CJ71" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="72" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>866</v>
       </c>
@@ -27026,8 +27269,11 @@
       <c r="CI72" s="3" t="s">
         <v>1959</v>
       </c>
+      <c r="CJ72" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="73" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>872</v>
       </c>
@@ -27289,8 +27535,11 @@
       <c r="CI73" s="3" t="s">
         <v>1960</v>
       </c>
+      <c r="CJ73" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="74" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>878</v>
       </c>
@@ -27552,8 +27801,11 @@
       <c r="CI74" s="3" t="s">
         <v>1961</v>
       </c>
+      <c r="CJ74" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="75" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>885</v>
       </c>
@@ -27815,8 +28067,11 @@
       <c r="CI75" s="3" t="s">
         <v>1962</v>
       </c>
+      <c r="CJ75" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="76" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>895</v>
       </c>
@@ -28078,8 +28333,11 @@
       <c r="CI76" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ76" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="77" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>914</v>
       </c>
@@ -28342,7 +28600,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>926</v>
       </c>
@@ -28604,8 +28862,11 @@
       <c r="CI78" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ78" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="79" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>938</v>
       </c>
@@ -28867,8 +29128,11 @@
       <c r="CI79" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ79" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="80" spans="1:87" ht="195" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:88" ht="195" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>953</v>
       </c>
@@ -29130,8 +29394,11 @@
       <c r="CI80" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ80" t="s">
+        <v>1992</v>
+      </c>
     </row>
-    <row r="81" spans="1:87" ht="195" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:88" ht="195" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>977</v>
       </c>
@@ -29393,8 +29660,11 @@
       <c r="CI81" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ81" t="s">
+        <v>1992</v>
+      </c>
     </row>
-    <row r="82" spans="1:87" ht="195" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:88" ht="195" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>995</v>
       </c>
@@ -29656,8 +29926,11 @@
       <c r="CI82" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ82" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="83" spans="1:87" ht="195" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:88" ht="195" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>1013</v>
       </c>
@@ -29919,8 +30192,11 @@
       <c r="CI83" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ83" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="84" spans="1:87" ht="195" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:88" ht="195" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>1023</v>
       </c>
@@ -30182,8 +30458,11 @@
       <c r="CI84" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ84" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="85" spans="1:87" ht="195" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:88" ht="195" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>1028</v>
       </c>
@@ -30445,8 +30724,11 @@
       <c r="CI85" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ85" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="86" spans="1:87" ht="195" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:88" ht="195" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>1031</v>
       </c>
@@ -30708,8 +30990,11 @@
       <c r="CI86" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ86" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="87" spans="1:87" ht="195" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:88" ht="195" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>1035</v>
       </c>
@@ -30971,8 +31256,11 @@
       <c r="CI87" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ87" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="88" spans="1:87" ht="195" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:88" ht="195" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>1037</v>
       </c>
@@ -31234,8 +31522,11 @@
       <c r="CI88" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ88" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="89" spans="1:87" ht="195" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:88" ht="195" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>1040</v>
       </c>
@@ -31497,8 +31788,11 @@
       <c r="CI89" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ89" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="90" spans="1:87" ht="195" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:88" ht="195" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>1043</v>
       </c>
@@ -31760,8 +32054,11 @@
       <c r="CI90" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ90" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="91" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>1047</v>
       </c>
@@ -32023,8 +32320,11 @@
       <c r="CI91" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ91" t="s">
+        <v>1994</v>
+      </c>
     </row>
-    <row r="92" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>1061</v>
       </c>
@@ -32286,8 +32586,11 @@
       <c r="CI92" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ92" t="s">
+        <v>1994</v>
+      </c>
     </row>
-    <row r="93" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>1069</v>
       </c>
@@ -32549,8 +32852,11 @@
       <c r="CI93" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ93" t="s">
+        <v>1994</v>
+      </c>
     </row>
-    <row r="94" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>1071</v>
       </c>
@@ -32812,8 +33118,11 @@
       <c r="CI94" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ94" t="s">
+        <v>1994</v>
+      </c>
     </row>
-    <row r="95" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>1074</v>
       </c>
@@ -33075,8 +33384,11 @@
       <c r="CI95" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ95" t="s">
+        <v>1994</v>
+      </c>
     </row>
-    <row r="96" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>1076</v>
       </c>
@@ -33338,8 +33650,11 @@
       <c r="CI96" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ96" t="s">
+        <v>1994</v>
+      </c>
     </row>
-    <row r="97" spans="1:87" ht="195" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:88" ht="195" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>1079</v>
       </c>
@@ -33601,8 +33916,11 @@
       <c r="CI97" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ97" t="s">
+        <v>1994</v>
+      </c>
     </row>
-    <row r="98" spans="1:87" ht="195" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:88" ht="195" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>1090</v>
       </c>
@@ -33864,8 +34182,11 @@
       <c r="CI98" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ98" t="s">
+        <v>1994</v>
+      </c>
     </row>
-    <row r="99" spans="1:87" ht="195" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:88" ht="195" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>1098</v>
       </c>
@@ -34127,8 +34448,11 @@
       <c r="CI99" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ99" t="s">
+        <v>1994</v>
+      </c>
     </row>
-    <row r="100" spans="1:87" ht="195" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:88" ht="195" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>1101</v>
       </c>
@@ -34390,8 +34714,11 @@
       <c r="CI100" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ100" t="s">
+        <v>1994</v>
+      </c>
     </row>
-    <row r="101" spans="1:87" ht="195" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:88" ht="195" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>1105</v>
       </c>
@@ -34653,8 +34980,11 @@
       <c r="CI101" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ101" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="102" spans="1:87" ht="195" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:88" ht="195" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>1119</v>
       </c>
@@ -34916,8 +35246,11 @@
       <c r="CI102" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ102" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="103" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>1125</v>
       </c>
@@ -35179,8 +35512,11 @@
       <c r="CI103" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ103" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="104" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>1140</v>
       </c>
@@ -35442,8 +35778,11 @@
       <c r="CI104" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ104" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="105" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>1148</v>
       </c>
@@ -35705,8 +36044,11 @@
       <c r="CI105" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ105" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="106" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>1154</v>
       </c>
@@ -35968,8 +36310,11 @@
       <c r="CI106" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ106" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="107" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>1158</v>
       </c>
@@ -36231,8 +36576,11 @@
       <c r="CI107" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ107" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="108" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>1160</v>
       </c>
@@ -36494,8 +36842,11 @@
       <c r="CI108" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ108" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="109" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>1163</v>
       </c>
@@ -36757,8 +37108,11 @@
       <c r="CI109" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ109" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="110" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>1181</v>
       </c>
@@ -37020,8 +37374,11 @@
       <c r="CI110" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ110" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="111" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>1194</v>
       </c>
@@ -37283,8 +37640,11 @@
       <c r="CI111" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ111" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="112" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>1197</v>
       </c>
@@ -37546,8 +37906,11 @@
       <c r="CI112" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ112" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="113" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>1200</v>
       </c>
@@ -37809,8 +38172,11 @@
       <c r="CI113" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ113" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="114" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>1203</v>
       </c>
@@ -38072,8 +38438,11 @@
       <c r="CI114" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ114" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="115" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>1206</v>
       </c>
@@ -38335,8 +38704,11 @@
       <c r="CI115" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ115" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="116" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>1209</v>
       </c>
@@ -38598,8 +38970,11 @@
       <c r="CI116" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ116" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="117" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>1212</v>
       </c>
@@ -38861,8 +39236,11 @@
       <c r="CI117" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ117" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="118" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>1215</v>
       </c>
@@ -39124,8 +39502,11 @@
       <c r="CI118" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ118" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="119" spans="1:87" ht="375" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:88" ht="375" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>1218</v>
       </c>
@@ -39387,8 +39768,11 @@
       <c r="CI119" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ119" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="120" spans="1:87" ht="315" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:88" ht="315" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>1234</v>
       </c>
@@ -39650,8 +40034,11 @@
       <c r="CI120" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ120" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="121" spans="1:87" ht="315" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:88" ht="315" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>1244</v>
       </c>
@@ -39913,8 +40300,11 @@
       <c r="CI121" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ121" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="122" spans="1:87" ht="315" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:88" ht="315" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>1247</v>
       </c>
@@ -40176,8 +40566,11 @@
       <c r="CI122" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ122" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="123" spans="1:87" ht="315" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:88" ht="315" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>1250</v>
       </c>
@@ -40439,8 +40832,11 @@
       <c r="CI123" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ123" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="124" spans="1:87" ht="315" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:88" ht="315" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>1255</v>
       </c>
@@ -40702,8 +41098,11 @@
       <c r="CI124" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ124" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="125" spans="1:87" ht="315" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:88" ht="315" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>1260</v>
       </c>
@@ -40965,8 +41364,11 @@
       <c r="CI125" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ125" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="126" spans="1:87" ht="315" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:88" ht="315" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>1263</v>
       </c>
@@ -41228,8 +41630,11 @@
       <c r="CI126" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ126" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="127" spans="1:87" ht="315" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:88" ht="315" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>1267</v>
       </c>
@@ -41491,8 +41896,11 @@
       <c r="CI127" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ127" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="128" spans="1:87" ht="315" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:88" ht="315" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>1270</v>
       </c>
@@ -41754,8 +42162,11 @@
       <c r="CI128" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ128" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="129" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>1273</v>
       </c>
@@ -42017,8 +42428,11 @@
       <c r="CI129" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ129" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="130" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>1289</v>
       </c>
@@ -42280,8 +42694,11 @@
       <c r="CI130" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ130" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="131" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>1299</v>
       </c>
@@ -42543,8 +42960,11 @@
       <c r="CI131" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ131" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="132" spans="1:87" ht="255" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:88" ht="255" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>1302</v>
       </c>
@@ -42806,8 +43226,11 @@
       <c r="CI132" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ132" t="s">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="133" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>1305</v>
       </c>
@@ -43069,8 +43492,11 @@
       <c r="CI133" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ133" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="134" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>1313</v>
       </c>
@@ -43332,8 +43758,11 @@
       <c r="CI134" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="CJ134" t="s">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="135" spans="1:87" ht="315" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:88" ht="315" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>1318</v>
       </c>
@@ -43596,7 +44025,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="136" spans="1:87" ht="315" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:88" ht="315" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>1333</v>
       </c>
@@ -43859,7 +44288,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="137" spans="1:87" ht="285" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:88" ht="285" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>1344</v>
       </c>
@@ -44122,7 +44551,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="138" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>1352</v>
       </c>
@@ -44385,7 +44814,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>1365</v>
       </c>
@@ -44648,7 +45077,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="140" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>1378</v>
       </c>
@@ -44911,7 +45340,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="141" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>1389</v>
       </c>
@@ -45174,7 +45603,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="142" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>1400</v>
       </c>
@@ -45437,7 +45866,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="143" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>1412</v>
       </c>
@@ -45700,7 +46129,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:87" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:88" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>1422</v>
       </c>
